--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>283.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>175.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>006025</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>诺安优化配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>71.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161728</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501188</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>31.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005251</t>
+          <t>501186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华多元动力灵活配置混合</t>
+          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>127.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006025</t>
+          <t>501189</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安优化配置混合</t>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.71</t>
+          <t>146.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>501188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>178.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010124</t>
+          <t>161728</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银景气优选混合A</t>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>290.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010125</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银景气优选混合C</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>209.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>008546</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>南方产业优势两年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>32.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501186</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501188</t>
+          <t>009152</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+          <t>南方瑞盛三年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33.83</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501189</t>
+          <t>002307</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>银华多元视野灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31.32</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>005251</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>银华多元动力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007469</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合C</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001303</t>
+          <t>010124</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合A</t>
+          <t>兴银景气优选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002323</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华稳利灵活配置混合C</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001457</t>
+          <t>009781</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商新常态灵活配置混合</t>
+          <t>南方产业优势两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>001457</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>华商新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>001303</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>银华稳利灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>350001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>天治财富增长混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002307</t>
+          <t>006025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华多元视野灵活配置混合</t>
+          <t>诺安优化配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161728</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>84.09</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>010125</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>兴银景气优选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008546</t>
+          <t>009153</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合A</t>
+          <t>南方瑞盛三年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>72.15</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009781</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南方产业优势两年持有期混合C</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>72.15</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009152</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合A</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>74.95</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1490,25 +1850,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009153</t>
+          <t>002323</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南方瑞盛三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>74.95</t>
-        </is>
-      </c>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1858,7 +1859,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -1874,6 +1874,974 @@
       </c>
       <c r="H27" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2847,4 +2848,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3740,4 +3741,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3749,7 +3750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,17 +3761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3780,14 +3801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.3</v>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3796,14 +3839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.09</v>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3812,14 +3877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.99</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3828,13 +3915,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>33.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4756,7 +4757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4767,17 +4768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4787,14 +4808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.46</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4803,14 +4846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.3</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4819,14 +4884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.09</v>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4835,14 +4922,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.99</v>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4851,13 +4960,1528 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>33.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6364,7 +6365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6375,17 +6376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6395,14 +6416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.5</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6411,14 +6454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.46</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6427,14 +6492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.3</v>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6443,14 +6530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.09</v>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6459,14 +6568,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.99</v>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6475,13 +6606,1131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>33.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>9.68</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>33.99</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>33.53</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3438,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4444,7 +5429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5336,7 +6321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6304,7 +7289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7341,7 +8326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601816-京沪高铁.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>5.73</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>9.68</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>33.99</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>33.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>283.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>175.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001745</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞富灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001746</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞富灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011086</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011087</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010840</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010984</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010985</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2816,7 +5677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4423,7 +7284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5429,7 +8290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6321,7 +9182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7289,7 +10150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8324,402 +11185,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>207.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.0597</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.4491</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161728</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>283.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.3294</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>141.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.7631</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>175.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5.7621</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9157</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1197</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安优化配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>71.88</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>